--- a/RMI/RMI/media/Reporte/REPORTE_MENSUAL_JULIO_OJV_4.xlsx
+++ b/RMI/RMI/media/Reporte/REPORTE_MENSUAL_JULIO_OJV_4.xlsx
@@ -2741,8 +2741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:BC1045"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O25" zoomScale="87" zoomScaleNormal="87" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="T86" sqref="T86"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="87" zoomScaleNormal="87" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71:Y71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3410,7 +3410,7 @@
     </row>
     <row r="13" spans="1:48" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="65">
-        <v>1463827</v>
+        <v>1438271</v>
       </c>
       <c r="B13" s="159" t="s">
         <v>51</v>
@@ -3422,7 +3422,7 @@
         <v>64</v>
       </c>
       <c r="E13" s="159">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="F13" s="162" t="s">
         <v>63</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="21" spans="1:48" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="65">
-        <v>1463827</v>
+        <v>1438271</v>
       </c>
       <c r="B21" s="159" t="s">
         <v>51</v>
@@ -7654,8 +7654,7 @@
       <c r="Q86" s="120"/>
       <c r="R86" s="121"/>
       <c r="T86" s="37">
-        <f>T21+T74+T80+T13</f>
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="U86" s="269"/>
       <c r="V86" s="270"/>
